--- a/dashboard/credentials.xlsx
+++ b/dashboard/credentials.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t xml:space="preserve">user</t>
   </si>
@@ -94,16 +94,10 @@
     <t xml:space="preserve">Piauí</t>
   </si>
   <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
     <t xml:space="preserve">admin</t>
   </si>
   <si>
-    <t xml:space="preserve">gesto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESTO</t>
+    <t xml:space="preserve">Admin (BR)</t>
   </si>
 </sst>
 </file>
@@ -216,7 +210,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -405,50 +399,33 @@
         <v>3281480</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1</v>
+        <v>123456</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>99</v>
+        <v>2602902</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>100</v>
-      </c>
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
